--- a/数据整理/stocks/A股/创业板/300418-昆仑万维.xlsx
+++ b/数据整理/stocks/A股/创业板/300418-昆仑万维.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010677</t>
+          <t>512980</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中证传媒指数（LOF）C</t>
+          <t>广发中证传媒ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>25.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7517</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159805</t>
+          <t>161123</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华中证传媒ETF</t>
+          <t>易方达并购重组指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>95.42</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2198</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512980</t>
+          <t>160629</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF</t>
+          <t>鹏华中证传媒指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.26</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2188</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161123</t>
+          <t>159805</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达并购重组指数（LOF）</t>
+          <t>鹏华中证传媒ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>95.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160629</t>
+          <t>164818</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华中证传媒指数（LOF）</t>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.03</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -632,25 +692,33 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>164818</t>
+          <t>010677</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>工银瑞信中证传媒指数（LOF）A</t>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>92.45</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2.83</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -665,7 +733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +754,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -716,15 +794,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>31.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>99.53</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.92</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2387</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -734,26 +822,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160324</t>
+          <t>160629</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏磐晟灵活配置混合（LOF）</t>
+          <t>鹏华中证传媒指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.35</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3007</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -762,26 +860,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>164818</t>
+          <t>512330</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信中证传媒指数（LOF）A</t>
+          <t>南方中证500信息技术指数ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>9.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2672</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -790,26 +898,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010677</t>
+          <t>161030</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信中证传媒指数（LOF）C</t>
+          <t>富国中证体育产业指数</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1933</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +936,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>512330</t>
+          <t>159805</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方中证500信息技术指数ETF</t>
+          <t>鹏华中证传媒ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>99.45</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>97.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -846,26 +974,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001351</t>
+          <t>160324</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>诺安中证500指数增强A</t>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -874,25 +1012,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010355</t>
+          <t>164818</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>诺安中证500指数增强C</t>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -902,25 +1050,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>159805</t>
+          <t>001351</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华中证传媒ETF</t>
+          <t>诺安中证500指数增强A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>97.39</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -930,25 +1088,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>160629</t>
+          <t>010677</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏华中证传媒指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>8</v>
       </c>
     </row>
@@ -958,26 +1120,30 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>161030</t>
+          <t>010355</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300418-昆仑万维.xlsx
+++ b/数据整理/stocks/A股/创业板/300418-昆仑万维.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,6 @@
           <t>工银瑞信中证传媒指数（LOF）C</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>94.11</t>
@@ -1128,7 +1128,6 @@
           <t>诺安中证500指数增强C</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>92.82</t>
@@ -1144,6 +1143,290 @@
       </c>
       <c r="H11" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2255</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002411</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008212</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300418-昆仑万维.xlsx
+++ b/数据整理/stocks/A股/创业板/300418-昆仑万维.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1432,4 +1433,706 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4211</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2617</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2186</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1788</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1666</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1374</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>71.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>40.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>40.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300418-昆仑万维.xlsx
+++ b/数据整理/stocks/A股/创业板/300418-昆仑万维.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2135,4 +2136,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300418-昆仑万维.xlsx
+++ b/数据整理/stocks/A股/创业板/300418-昆仑万维.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2144,7 +2145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2155,17 +2156,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2175,14 +2196,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.98</v>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7432</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2191,14 +2234,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.57</v>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3828</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2207,14 +2272,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.18</v>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3729</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2223,13 +2310,683 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3079</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>73.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300418-昆仑万维.xlsx
+++ b/数据整理/stocks/A股/创业板/300418-昆仑万维.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2885,7 +2886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2896,17 +2897,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2916,14 +2937,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.4</v>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5130</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2932,14 +2975,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.98</v>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4390</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2948,14 +3013,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.57</v>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3440</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2964,14 +3051,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2358</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.18</v>
       </c>
     </row>
     <row r="6">
@@ -2980,13 +3089,509 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300418-昆仑万维.xlsx
+++ b/数据整理/stocks/A股/创业板/300418-昆仑万维.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3474,7 +3475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3485,17 +3486,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3505,14 +3526,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.89</v>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6407</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3521,14 +3564,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.4</v>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4620</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3537,14 +3602,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.98</v>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3181</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3553,14 +3640,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.57</v>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2477</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -3569,14 +3678,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.18</v>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -3585,13 +3716,449 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013278</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300418-昆仑万维.xlsx
+++ b/数据整理/stocks/A股/创业板/300418-昆仑万维.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>3.06</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.89</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>3.4</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>2.98</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>0.57</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>2.18</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.29</v>
       </c>
     </row>
@@ -600,6 +617,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4099</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4235</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2427</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>517500</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013278</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015675</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1149,7 +1754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1737,7 +2342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2477,7 +3082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3179,7 +3784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3463,7 +4068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3885,7 +4490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300418-昆仑万维.xlsx
+++ b/数据整理/stocks/A股/创业板/300418-昆仑万维.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>2.58</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>3.06</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>2.89</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>3.4</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>2.98</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>0.57</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>2.18</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.29</v>
       </c>
     </row>
@@ -616,7 +633,839 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7517</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2198</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2188</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3768</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4568</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2751</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>517500</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013278</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015675</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1204,7 +2053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1754,7 +2603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2342,7 +3191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3082,7 +3931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3784,7 +4633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4068,7 +4917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4488,286 +5337,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512980</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发中证传媒ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>25.14</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.26</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7517</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161123</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达并购重组指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2198</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160629</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华中证传媒指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.76</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.03</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2188</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>159805</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华中证传媒ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.42</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0870</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>164818</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信中证传媒指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0167</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010677</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>工银瑞信中证传媒指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>